--- a/Technology/Software/PagerDuty.xlsx
+++ b/Technology/Software/PagerDuty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5406B24E-75A3-104D-9589-595AAA6E6C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B17D65-7F40-E849-83FB-968D048560D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,11 +2229,11 @@
     <v>Powered by Refinitiv</v>
     <v>35.33</v>
     <v>19.510000000000002</v>
-    <v>0.93479999999999996</v>
-    <v>-0.16</v>
-    <v>-4.6889999999999996E-3</v>
+    <v>0.92869999999999997</v>
     <v>-0.68</v>
-    <v>-2.0024E-2</v>
+    <v>-2.3136999999999998E-2</v>
+    <v>0.13</v>
+    <v>4.5279999999999999E-3</v>
     <v>USD</v>
     <v>PagerDuty, Inc. is a digital operations management platform that manages urgent and mission-critical work for a modern, digital business. The Company collects data and digital signals from virtually any software-enabled system or device and leverages machine learning to correlate, process, and predict opportunities and issues. It uses incident response, event management, and automation to bring together the right people with the right information so they can resolve issues and act on opportunities in minutes or seconds from wherever they are. The PagerDuty operations platform consists of the products, including PagerDuty Incident Response, PagerDuty Process Automation, PagerDuty Event Intelligence and PagerDuty for Customer Service. Its customers include Cisco, Genentech, Electronic Arts, Cox Automotive, Shopify, Zoom, DoorDash, and more. The Company’s subsidiaries include PagerDuty, Pty Ltd., PagerDuty, Ltd, PagerDuty, Inc., PagerDuty Switzerland GmbH and Catalytic, Inc.</v>
     <v>1166</v>
@@ -2241,24 +2241,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>600 Townsend St Ste 200E, SAN FRANCISCO, CA, 94103-5690 US</v>
-    <v>34.28</v>
+    <v>29.6</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.958333356248</v>
+    <v>45065.939973378903</v>
     <v>0</v>
-    <v>33.436799999999998</v>
-    <v>3102596000</v>
+    <v>28.36</v>
+    <v>2643882080</v>
     <v>PAGERDUTY, INC.</v>
     <v>PAGERDUTY, INC.</v>
-    <v>34.04</v>
-    <v>34.119999999999997</v>
-    <v>33.96</v>
-    <v>33.28</v>
-    <v>91360320</v>
+    <v>29.4</v>
+    <v>29.39</v>
+    <v>28.71</v>
+    <v>28.84</v>
+    <v>92089240</v>
     <v>PD</v>
     <v>PAGERDUTY, INC. (XNYS:PD)</v>
-    <v>782646</v>
-    <v>1611405</v>
+    <v>1350686</v>
+    <v>1140969</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2842,10 +2842,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J93" sqref="J93"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3403,15 +3403,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>11.025728866081963</v>
+        <v>9.3955922614393952</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-28.873444697780467</v>
+        <v>-24.604551486668839</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>-241.80469176213856</v>
+        <v>-206.05424986361157</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="60" t="s">
+      <c r="M83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4795,10 +4795,10 @@
       <c r="F84" s="1">
         <v>2901000</v>
       </c>
-      <c r="M84" s="62" t="s">
+      <c r="M84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="63"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5040,10 +5040,10 @@
       <c r="F93" s="1">
         <v>221120000</v>
       </c>
-      <c r="M93" s="62" t="s">
+      <c r="M93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="63"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.93479999999999996</v>
+        <v>0.92869999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>8.1193139999999997E-2</v>
+        <v>8.0930534999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="62" t="s">
+      <c r="M98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="63"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>8.4591458654318788E-2</v>
+        <v>9.7832241233984679E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3102596000</v>
+        <v>2643882080</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.91540854134568117</v>
+        <v>0.90216775876601529</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>3389302000</v>
+        <v>2930588080</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,10 +5329,10 @@
       <c r="F104" s="11">
         <v>349785000</v>
       </c>
-      <c r="M104" s="62" t="s">
+      <c r="M104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="63"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.2724266293443904E-2</v>
+        <v>7.1161751608835727E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
       <c r="J107" s="43"/>
       <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>-1019377917.4449638</v>
+        <v>-1053882521.5741577</v>
       </c>
       <c r="L107" s="47" t="s">
         <v>148</v>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>-1066840418.1140367</v>
+        <v>-1101345022.2432306</v>
       </c>
       <c r="L108" s="47" t="s">
         <v>144</v>
@@ -5473,14 +5473,14 @@
       </c>
       <c r="N108" s="51">
         <f>N105</f>
-        <v>7.2724266293443904E-2</v>
+        <v>7.1161751608835727E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
+      <c r="G109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="65"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="52" t="s">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>-835763257.96201301</v>
+        <v>-866063945.32322323</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>-579113257.96201301</v>
+        <v>-609413945.32322323</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="H115" s="55">
         <f>H113/H114</f>
-        <v>-5.4818208387913296</v>
+        <v>-5.7686437307260165</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="H116" s="56" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>33.96</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H117" s="58">
         <f>H115/H116-1</f>
-        <v>-1.1614199304708872</v>
+        <v>-1.2009280296316969</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
